--- a/SequencingSummary/20220616_L1_fastq_bcl2fastq_single.xlsx
+++ b/SequencingSummary/20220616_L1_fastq_bcl2fastq_single.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Flowcell Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
   <si>
     <t xml:space="preserve">Clusters (Raw) </t>
   </si>
@@ -87,12 +87,21 @@
     <t xml:space="preserve">STARR_026_S2</t>
   </si>
   <si>
+    <t xml:space="preserve">AACAAGAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_026_S3</t>
   </si>
   <si>
+    <t xml:space="preserve">TCGCTTCG</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_026_S4</t>
   </si>
   <si>
+    <t xml:space="preserve">GTATGCTC</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_041_S5</t>
   </si>
   <si>
@@ -192,12 +201,18 @@
     <t xml:space="preserve">GTGCACGGAA</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-D4</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_059</t>
   </si>
   <si>
     <t xml:space="preserve">CCTGTCAG</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-D7</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_060</t>
   </si>
   <si>
@@ -210,18 +225,12 @@
     <t xml:space="preserve">CCAATCCGTC</t>
   </si>
   <si>
+    <t xml:space="preserve">SI-TT-H3</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARR_063</t>
   </si>
   <si>
-    <t xml:space="preserve">TCGCTTCG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AACAAGAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GTATGCTC</t>
-  </si>
-  <si>
     <t xml:space="preserve">GGGGGGGG</t>
   </si>
   <si>
@@ -232,6 +241,15 @@
   </si>
   <si>
     <t xml:space="preserve">CCCGTCTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCGTCAGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCTTCAGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAGTATAG</t>
   </si>
 </sst>
 </file>
@@ -267,18 +285,12 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -356,7 +368,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,7 +376,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -388,13 +400,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
   </cols>
   <sheetData>
@@ -411,13 +423,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1575697346</v>
+        <v>7660044288</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>787848673</v>
+        <v>3147717791</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>92966</v>
+        <v>371431</v>
       </c>
     </row>
   </sheetData>
@@ -436,10 +448,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -509,28 +521,28 @@
         <v>16</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>787848673</v>
+        <v>3147717791</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>25.03</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>98.67</v>
+        <v>99.57</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.33</v>
+        <v>0.43</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>92966</v>
+        <v>371431</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>50</v>
+        <v>41.09</v>
       </c>
       <c r="K2" s="5" t="n">
-        <v>94.67</v>
+        <v>94.2</v>
       </c>
       <c r="L2" s="5" t="n">
-        <v>36.09</v>
+        <v>35.98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,29 +590,32 @@
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="3" t="n">
-        <v>30</v>
+        <v>79524414</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.33</v>
+        <v>98.13</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>96.67</v>
+        <v>1.87</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0</v>
+        <v>9384</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>50</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>90.82</v>
+        <v>95.48</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35.19</v>
+        <v>36.24</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>19</v>
@@ -611,31 +626,34 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>1337</v>
+        <v>91406964</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.45</v>
+        <v>98.98</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>99.55</v>
+        <v>1.02</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0</v>
+        <v>10786</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>50</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>63.7</v>
+        <v>95.36</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29.57</v>
+        <v>36.22</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>19</v>
@@ -646,31 +664,34 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>948</v>
+        <v>72994726</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.11</v>
+        <v>99.02</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>99.89</v>
+        <v>0.98</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0</v>
+        <v>8613</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>50</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>90.64</v>
+        <v>95.47</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>35.31</v>
+        <v>36.24</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>19</v>
@@ -681,10 +702,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="10" t="n">
         <v>166786263</v>
@@ -711,7 +732,7 @@
         <v>36.1</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,37 +740,37 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>54755635</v>
+        <v>173480174</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>1.94</v>
+        <v>5.51</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>97.55</v>
+        <v>97.81</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>2.45</v>
+        <v>2.19</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>6517</v>
+        <v>20471</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>50</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>93.51</v>
+        <v>94.84</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35.88</v>
+        <v>36.12</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,37 +778,37 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>55812402</v>
+        <v>145005286</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>1.98</v>
+        <v>4.61</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>98.77</v>
+        <v>99</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>6499</v>
+        <v>17111</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>50</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>93.51</v>
+        <v>94.34</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>35.89</v>
+        <v>36.03</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,10 +817,10 @@
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>170531805</v>
@@ -826,15 +847,15 @@
         <v>36.1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>10689847</v>
@@ -861,15 +882,15 @@
         <v>36.12</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>11280815</v>
@@ -896,15 +917,15 @@
         <v>36.11</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>10531268</v>
@@ -931,16 +952,16 @@
         <v>36.12</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>12735409</v>
@@ -967,42 +988,42 @@
         <v>36.2</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>2359869118</v>
+        <v>2115945329</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>74.97</v>
+        <v>67.22</v>
       </c>
       <c r="G15" s="4" t="n">
         <v>100</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>278465</v>
+        <v>249682</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>38.79</v>
+        <v>37.81</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>94.04</v>
+        <v>93.88</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>35.94</v>
+        <v>35.91</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1084,6 +1105,9 @@
       <c r="C29" s="0"/>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1101,48 +1125,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1153,16 +1177,19 @@
         <v>733594880</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,16 +1200,19 @@
         <v>686533580</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1193,16 +1223,19 @@
         <v>542759940</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1210,88 +1243,46 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>90460720</v>
+        <v>60641500</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>65</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>78089240</v>
+        <v>5765960</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>65</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>72295460</v>
+        <v>5654920</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>65</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>60641500</v>
+        <v>3083620</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1299,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>5779940</v>
+        <v>2619080</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>5661380</v>
+        <v>2144880</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,19 +1312,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>3074520</v>
+        <v>1974180</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
